--- a/OREI_files/10-herd data/MALDI files/maldi_Staph_species_list.xlsx
+++ b/OREI_files/10-herd data/MALDI files/maldi_Staph_species_list.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/MALDI files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47EE4EC7-8411-42DC-9AB3-98933A1C513F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{47EE4EC7-8411-42DC-9AB3-98933A1C513F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00BE890D-00F8-4B18-9645-C5109E056E47}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C9F8E953-7E43-42F8-A0F6-1AA696516398}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{C9F8E953-7E43-42F8-A0F6-1AA696516398}"/>
   </bookViews>
   <sheets>
     <sheet name="&quot;Staph species&quot;" sheetId="1" r:id="rId1"/>
+    <sheet name="&quot;Staph species&quot; (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="figure for MRW talk" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="56">
   <si>
     <t>path_1_maldi_final_id</t>
   </si>
@@ -164,13 +166,69 @@
   </si>
   <si>
     <t>isolate</t>
+  </si>
+  <si>
+    <t>Staphylococcus species</t>
+  </si>
+  <si>
+    <t>Final MALDI ID</t>
+  </si>
+  <si>
+    <t>MALDI ID1</t>
+  </si>
+  <si>
+    <t>MALDI ID2</t>
+  </si>
+  <si>
+    <t>Score 1</t>
+  </si>
+  <si>
+    <t>Score 2</t>
+  </si>
+  <si>
+    <t>Case occurrence</t>
+  </si>
+  <si>
+    <t>2.03 (1.87-2.12)</t>
+  </si>
+  <si>
+    <t>1.91 (1.84-1.98)</t>
+  </si>
+  <si>
+    <t>2.14 (1.88-2.83)</t>
+  </si>
+  <si>
+    <t>1.99 (1.76-2.2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Staphylococcus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spp.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +236,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +275,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -201,14 +302,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -527,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197AEA44-B5F5-43E9-99EC-4EECBAF4B272}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1221,4 +1434,746 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DDC01B-EFC5-4977-959C-76A6ACEEC6B5}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="G2" s="1">
+        <f>MIN(C2:C26)</f>
+        <v>1.88</v>
+      </c>
+      <c r="H2" s="1">
+        <f>MIN(E2:E26)</f>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="G3" s="1">
+        <f>MAX(C2:C26)</f>
+        <v>2.33</v>
+      </c>
+      <c r="H3" s="1">
+        <f>MAX(E2:E26)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <f>AVERAGE(C2:C26)</f>
+        <v>2.1371999999999995</v>
+      </c>
+      <c r="H4" s="1">
+        <f>AVERAGE(E2:E26)</f>
+        <v>1.9923999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2.06</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="G28" s="5">
+        <f>MIN(C28:C31)</f>
+        <v>1.87</v>
+      </c>
+      <c r="H28" s="5">
+        <f>MIN(E28:E31)</f>
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="G29" s="5">
+        <f>MAX(C28:C31)</f>
+        <v>2.12</v>
+      </c>
+      <c r="H29" s="5">
+        <f>MAX(E28:E31)</f>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2.12</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="G30" s="5">
+        <f>AVERAGE(C28:C31)</f>
+        <v>2.0250000000000004</v>
+      </c>
+      <c r="H30" s="5">
+        <f>AVERAGE(E28:E31)</f>
+        <v>1.9075</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1.89</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="33" ht="12.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L41">
+    <sortCondition ref="B2:B41"/>
+    <sortCondition ref="D2:D41"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CDC94F-E56B-4182-96E4-F815EE39D244}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>25</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2.09</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1.89</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>